--- a/Banca Bianca.xlsx
+++ b/Banca Bianca.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Kontakti" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="89">
   <si>
     <t>Ime</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>Period otplate</t>
+  </si>
+  <si>
+    <t>Kamata %</t>
   </si>
 </sst>
 </file>
@@ -1079,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:B7"/>
+  <dimension ref="A4:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,36 +1093,48 @@
     <col min="2" max="2" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="2">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>45</v>
+      </c>
+      <c r="C7" s="2">
+        <v>14.5</v>
       </c>
     </row>
   </sheetData>
@@ -1449,8 +1464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,7 +1542,7 @@
         <v>10</v>
       </c>
       <c r="J6" s="12">
-        <f>G6+((G6*(H6/12)*10)/100)</f>
+        <f t="shared" ref="J6:J9" si="0">G6+((G6*(H6/12)*I6)/100)</f>
         <v>588000</v>
       </c>
       <c r="K6" s="18">
@@ -1564,11 +1579,11 @@
         <v>3</v>
       </c>
       <c r="J7" s="12">
-        <f>G7+((G7*(H7/12)*3)/100)</f>
+        <f t="shared" si="0"/>
         <v>5700000</v>
       </c>
       <c r="K7" s="18">
-        <f t="shared" ref="K7:K9" si="0">J7/H7</f>
+        <f t="shared" ref="K7:K9" si="1">J7/H7</f>
         <v>15833.333333333334</v>
       </c>
     </row>
@@ -1601,11 +1616,11 @@
         <v>10</v>
       </c>
       <c r="J8" s="12">
-        <f t="shared" ref="J8:J9" si="1">G8+((G8*(H8/12)*10)/100)</f>
+        <f t="shared" si="0"/>
         <v>280000</v>
       </c>
       <c r="K8" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5833.333333333333</v>
       </c>
     </row>
@@ -1638,12 +1653,49 @@
         <v>10</v>
       </c>
       <c r="J9" s="12">
+        <f t="shared" si="0"/>
+        <v>140000</v>
+      </c>
+      <c r="K9" s="18">
         <f t="shared" si="1"/>
-        <v>140000</v>
-      </c>
-      <c r="K9" s="18">
-        <f t="shared" si="0"/>
         <v>2916.6666666666665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="5">
+        <v>104</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>43535</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="17">
+        <v>200000</v>
+      </c>
+      <c r="H10" s="7">
+        <v>60</v>
+      </c>
+      <c r="I10" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="J10" s="12">
+        <f>G10+((G10*(H10/12)*I10)/100)</f>
+        <v>308000</v>
+      </c>
+      <c r="K10" s="18">
+        <f t="shared" ref="K10" si="2">J10/H10</f>
+        <v>5133.333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1815,7 +1867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>

--- a/Banca Bianca.xlsx
+++ b/Banca Bianca.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Kontakti" sheetId="1" r:id="rId1"/>
@@ -328,12 +328,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -423,7 +429,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -482,6 +488,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1285,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1420,7 +1428,7 @@
       <c r="A20" t="s">
         <v>64</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="28">
         <v>4</v>
       </c>
       <c r="D20" s="13">
@@ -1432,7 +1440,7 @@
       <c r="A21" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="29">
         <v>44</v>
       </c>
       <c r="C21" s="11"/>
@@ -1445,7 +1453,7 @@
       <c r="A22" t="s">
         <v>66</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="28">
         <f>B21+B20</f>
         <v>48</v>
       </c>
@@ -1464,7 +1472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
